--- a/JRODe_ARC_Sample.xlsx
+++ b/JRODe_ARC_Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_sys\Users\yutaka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_test\TkEasyGUI\my-second-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E116C0C3-B8D3-45A4-888E-B55036B67121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE24963-B316-4CA8-ABDE-A6BAEFAD8089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6413" yWindow="1132" windowWidth="17505" windowHeight="13838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="2925" windowWidth="13215" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1407,10 +1407,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:DJ21"/>
+  <dimension ref="A1:DJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="CZ10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:DJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="6.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8587,6 +8587,355 @@
         <v>189</v>
       </c>
     </row>
+    <row r="22" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+      <c r="R22">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <v>22</v>
+      </c>
+      <c r="W22">
+        <v>23</v>
+      </c>
+      <c r="X22">
+        <v>24</v>
+      </c>
+      <c r="Y22">
+        <v>25</v>
+      </c>
+      <c r="Z22">
+        <v>26</v>
+      </c>
+      <c r="AA22">
+        <v>27</v>
+      </c>
+      <c r="AB22">
+        <v>28</v>
+      </c>
+      <c r="AC22">
+        <v>29</v>
+      </c>
+      <c r="AD22">
+        <v>30</v>
+      </c>
+      <c r="AE22">
+        <v>31</v>
+      </c>
+      <c r="AF22">
+        <v>32</v>
+      </c>
+      <c r="AG22">
+        <v>33</v>
+      </c>
+      <c r="AH22">
+        <v>34</v>
+      </c>
+      <c r="AI22">
+        <v>35</v>
+      </c>
+      <c r="AJ22">
+        <v>36</v>
+      </c>
+      <c r="AK22">
+        <v>37</v>
+      </c>
+      <c r="AL22">
+        <v>38</v>
+      </c>
+      <c r="AM22">
+        <v>39</v>
+      </c>
+      <c r="AN22">
+        <v>40</v>
+      </c>
+      <c r="AO22">
+        <v>41</v>
+      </c>
+      <c r="AP22">
+        <v>42</v>
+      </c>
+      <c r="AQ22">
+        <v>43</v>
+      </c>
+      <c r="AR22">
+        <v>44</v>
+      </c>
+      <c r="AS22">
+        <v>45</v>
+      </c>
+      <c r="AT22">
+        <v>46</v>
+      </c>
+      <c r="AU22">
+        <v>47</v>
+      </c>
+      <c r="AV22">
+        <v>48</v>
+      </c>
+      <c r="AW22">
+        <v>49</v>
+      </c>
+      <c r="AX22">
+        <v>50</v>
+      </c>
+      <c r="AY22">
+        <v>51</v>
+      </c>
+      <c r="AZ22">
+        <v>52</v>
+      </c>
+      <c r="BA22">
+        <v>53</v>
+      </c>
+      <c r="BB22">
+        <v>54</v>
+      </c>
+      <c r="BC22">
+        <v>55</v>
+      </c>
+      <c r="BD22">
+        <v>56</v>
+      </c>
+      <c r="BE22">
+        <v>57</v>
+      </c>
+      <c r="BF22">
+        <v>58</v>
+      </c>
+      <c r="BG22">
+        <v>59</v>
+      </c>
+      <c r="BH22">
+        <v>60</v>
+      </c>
+      <c r="BI22">
+        <v>61</v>
+      </c>
+      <c r="BJ22">
+        <v>62</v>
+      </c>
+      <c r="BK22">
+        <v>63</v>
+      </c>
+      <c r="BL22">
+        <v>64</v>
+      </c>
+      <c r="BM22">
+        <v>65</v>
+      </c>
+      <c r="BN22">
+        <v>66</v>
+      </c>
+      <c r="BO22">
+        <v>67</v>
+      </c>
+      <c r="BP22">
+        <v>68</v>
+      </c>
+      <c r="BQ22">
+        <v>69</v>
+      </c>
+      <c r="BR22">
+        <v>70</v>
+      </c>
+      <c r="BS22">
+        <v>71</v>
+      </c>
+      <c r="BT22">
+        <v>72</v>
+      </c>
+      <c r="BU22">
+        <v>73</v>
+      </c>
+      <c r="BV22">
+        <v>74</v>
+      </c>
+      <c r="BW22">
+        <v>75</v>
+      </c>
+      <c r="BX22">
+        <v>76</v>
+      </c>
+      <c r="BY22">
+        <v>77</v>
+      </c>
+      <c r="BZ22">
+        <v>78</v>
+      </c>
+      <c r="CA22">
+        <v>79</v>
+      </c>
+      <c r="CB22">
+        <v>80</v>
+      </c>
+      <c r="CC22">
+        <v>81</v>
+      </c>
+      <c r="CD22">
+        <v>82</v>
+      </c>
+      <c r="CE22">
+        <v>83</v>
+      </c>
+      <c r="CF22">
+        <v>84</v>
+      </c>
+      <c r="CG22">
+        <v>85</v>
+      </c>
+      <c r="CH22">
+        <v>86</v>
+      </c>
+      <c r="CI22">
+        <v>87</v>
+      </c>
+      <c r="CJ22">
+        <v>88</v>
+      </c>
+      <c r="CK22">
+        <v>89</v>
+      </c>
+      <c r="CL22">
+        <v>90</v>
+      </c>
+      <c r="CM22">
+        <v>91</v>
+      </c>
+      <c r="CN22">
+        <v>92</v>
+      </c>
+      <c r="CO22">
+        <v>93</v>
+      </c>
+      <c r="CP22">
+        <v>94</v>
+      </c>
+      <c r="CQ22">
+        <v>95</v>
+      </c>
+      <c r="CR22">
+        <v>96</v>
+      </c>
+      <c r="CS22">
+        <v>97</v>
+      </c>
+      <c r="CT22">
+        <v>98</v>
+      </c>
+      <c r="CU22">
+        <v>99</v>
+      </c>
+      <c r="CV22">
+        <v>100</v>
+      </c>
+      <c r="CW22">
+        <v>101</v>
+      </c>
+      <c r="CX22">
+        <v>102</v>
+      </c>
+      <c r="CY22">
+        <v>103</v>
+      </c>
+      <c r="CZ22">
+        <v>104</v>
+      </c>
+      <c r="DA22">
+        <v>105</v>
+      </c>
+      <c r="DB22">
+        <v>106</v>
+      </c>
+      <c r="DC22">
+        <v>107</v>
+      </c>
+      <c r="DD22">
+        <v>108</v>
+      </c>
+      <c r="DE22">
+        <v>109</v>
+      </c>
+      <c r="DF22">
+        <v>110</v>
+      </c>
+      <c r="DG22">
+        <v>111</v>
+      </c>
+      <c r="DH22">
+        <v>112</v>
+      </c>
+      <c r="DI22">
+        <v>113</v>
+      </c>
+      <c r="DJ22">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/JRODe_ARC_Sample.xlsx
+++ b/JRODe_ARC_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_test\TkEasyGUI\my-second-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE24963-B316-4CA8-ABDE-A6BAEFAD8089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33A97E-8EF4-42CF-825C-E65997C53C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2925" windowWidth="13215" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="2512" windowWidth="16095" windowHeight="12983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="340">
   <si>
     <t>院内管理コード</t>
   </si>
@@ -1409,8 +1409,8 @@
   </sheetPr>
   <dimension ref="A1:DJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:DJ22"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="6.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1418,6 +1418,8 @@
     <col min="1" max="1" width="6.86328125" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.46484375" customWidth="1"/>
+    <col min="46" max="46" width="12.53125" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -1900,8 +1902,8 @@
       <c r="AS2" t="s">
         <v>136</v>
       </c>
-      <c r="AT2" t="s">
-        <v>137</v>
+      <c r="AT2">
+        <v>30</v>
       </c>
       <c r="AU2" t="s">
         <v>138</v>
@@ -2241,8 +2243,8 @@
       <c r="AS3" t="s">
         <v>165</v>
       </c>
-      <c r="AT3" t="s">
-        <v>166</v>
+      <c r="AT3">
+        <v>2</v>
       </c>
       <c r="AU3" t="s">
         <v>167</v>
